--- a/experiment result cnn/2048_0.2_40_zs50_kappa_lp.xlsx
+++ b/experiment result cnn/2048_0.2_40_zs50_kappa_lp.xlsx
@@ -443,7 +443,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>0.00840044456499687</v>
+        <v>0.00548120831580294</v>
       </c>
     </row>
     <row r="3">
@@ -451,7 +451,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>0.008670773500657269</v>
+        <v>0.0008821037679456585</v>
       </c>
     </row>
     <row r="4">
@@ -459,7 +459,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>0.001667246498896863</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -467,7 +467,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>0.008602807596933795</v>
+        <v>0.0005204719991464962</v>
       </c>
     </row>
     <row r="6">
@@ -475,7 +475,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>0.002777014086563224</v>
+        <v>0.002134276684746372</v>
       </c>
     </row>
     <row r="7">
@@ -483,7 +483,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>0.02258281754501883</v>
+        <v>0.0002000679999832679</v>
       </c>
     </row>
     <row r="8">
@@ -491,7 +491,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>0.007016951195179616</v>
+        <v>0.0001200399999891115</v>
       </c>
     </row>
     <row r="9">
@@ -499,7 +499,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>0.02459336021487943</v>
+        <v>0.001061217936970794</v>
       </c>
     </row>
     <row r="10">
@@ -507,7 +507,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>0.0100265775025304</v>
+        <v>0.0002402039995991192</v>
       </c>
     </row>
     <row r="11">
@@ -515,7 +515,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>0.002309927024355818</v>
+        <v>0.02099629223531904</v>
       </c>
     </row>
     <row r="12">
@@ -523,7 +523,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>0.01455836336479587</v>
+        <v>0.002048439347340225</v>
       </c>
     </row>
     <row r="13">
@@ -531,7 +531,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>0.00643343762959094</v>
+        <v>0.000440347977547305</v>
       </c>
     </row>
     <row r="14">
@@ -539,7 +539,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>0.009964875521746701</v>
+        <v>0.0007409579958041043</v>
       </c>
     </row>
     <row r="15">
@@ -547,7 +547,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>0.007624388911120111</v>
+        <v>0.003151788483717296</v>
       </c>
     </row>
     <row r="16">
@@ -555,7 +555,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>0.002209188342042118</v>
+        <v>0.0002200699999832279</v>
       </c>
     </row>
     <row r="17">
@@ -563,7 +563,7 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>0.03109760628949128</v>
+        <v>0.0008424396987862162</v>
       </c>
     </row>
     <row r="18">
@@ -571,7 +571,7 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>0.008525176051375644</v>
+        <v>0.001141737983701084</v>
       </c>
     </row>
     <row r="19">
@@ -579,7 +579,7 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>0.002100469990346941</v>
+        <v>0.0001400579999743347</v>
       </c>
     </row>
     <row r="20">
@@ -587,7 +587,7 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>0.004114026405460104</v>
+        <v>0.0003001819998107926</v>
       </c>
     </row>
     <row r="21">
@@ -595,7 +595,7 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>0.01202008542484552</v>
+        <v>0.001693776645442286</v>
       </c>
     </row>
     <row r="22">
@@ -603,7 +603,7 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>0.01332708231057792</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -611,7 +611,7 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>0.003923491016695575</v>
+        <v>0.0006621775107727558</v>
       </c>
     </row>
     <row r="24">
@@ -619,7 +619,7 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>0.008097325757469723</v>
+        <v>0.01222349638898096</v>
       </c>
     </row>
     <row r="25">
@@ -627,7 +627,7 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>0.01420918483597258</v>
+        <v>0.002049007608091842</v>
       </c>
     </row>
     <row r="26">
@@ -635,7 +635,7 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>0.01195493467269193</v>
+        <v>0.00792476619967228</v>
       </c>
     </row>
     <row r="27">
@@ -643,7 +643,7 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>0.006765673692882395</v>
+        <v>0.0001000339999897118</v>
       </c>
     </row>
     <row r="28">
@@ -651,7 +651,7 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>0.0006343032687004448</v>
+        <v>8.001599999871949e-05</v>
       </c>
     </row>
     <row r="29">
@@ -659,7 +659,7 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>0.002194204303932459</v>
+        <v>0.0006608457996529329</v>
       </c>
     </row>
     <row r="30">
@@ -667,7 +667,7 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>0.004396394275551234</v>
+        <v>6.00099991985994e-05</v>
       </c>
     </row>
     <row r="31">
@@ -675,7 +675,7 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>0.003506415469474868</v>
+        <v>0.006732019668673035</v>
       </c>
     </row>
     <row r="32">
@@ -683,7 +683,7 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>0.008065329728551424</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -691,7 +691,7 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>0.003930119191366913</v>
+        <v>0.001977679638610016</v>
       </c>
     </row>
     <row r="34">
@@ -699,7 +699,7 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>0.003482495355088249</v>
+        <v>0.001710220968889353</v>
       </c>
     </row>
     <row r="35">
@@ -707,7 +707,7 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>0.002898664877839134</v>
+        <v>0.01507449093013192</v>
       </c>
     </row>
     <row r="36">
@@ -715,7 +715,7 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>0.006199971498852663</v>
+        <v>0.007093988273515079</v>
       </c>
     </row>
     <row r="37">
@@ -723,7 +723,7 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>0.0073658457168149</v>
+        <v>0.003322700045198935</v>
       </c>
     </row>
     <row r="38">
@@ -731,7 +731,7 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>0.001807918623301794</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -739,7 +739,7 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>0.002229283483966889</v>
+        <v>0.002305971479285595</v>
       </c>
     </row>
     <row r="40">
@@ -747,7 +747,7 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>0.002063877655665858</v>
+        <v>0.0105316714686146</v>
       </c>
     </row>
     <row r="41">
@@ -755,7 +755,7 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>0.002003092650750358</v>
+        <v>0.0006215779752750114</v>
       </c>
     </row>
     <row r="42">
@@ -763,7 +763,7 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>0.006230347562328023</v>
+        <v>0.0284534815200043</v>
       </c>
     </row>
     <row r="43">
@@ -771,7 +771,7 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>0.006146020372872591</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -779,7 +779,7 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>0.003114571172883715</v>
+        <v>8.001999999671805e-05</v>
       </c>
     </row>
     <row r="45">
@@ -787,7 +787,7 @@
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>0.009068886089167002</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46">
@@ -795,7 +795,7 @@
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>0.008800916870192474</v>
+        <v>0.01822583535294226</v>
       </c>
     </row>
     <row r="47">
@@ -803,7 +803,7 @@
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>0.002362247086911743</v>
+        <v>0.005900514593677565</v>
       </c>
     </row>
     <row r="48">
@@ -811,7 +811,7 @@
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>0.005471277812065354</v>
+        <v>0.000100049999974975</v>
       </c>
     </row>
     <row r="49">
@@ -819,7 +819,7 @@
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>0.03882733755272795</v>
+        <v>0.00386841054919134</v>
       </c>
     </row>
     <row r="50">
@@ -827,7 +827,7 @@
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>0.004975834394259263</v>
+        <v>0</v>
       </c>
     </row>
     <row r="51">
@@ -835,7 +835,7 @@
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>0.01546708570114589</v>
+        <v>0.003149678187177608</v>
       </c>
     </row>
     <row r="52">
@@ -843,7 +843,7 @@
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>0.009802239716739878</v>
+        <v>0.02205589910031956</v>
       </c>
     </row>
     <row r="53">
@@ -851,7 +851,7 @@
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>0.09338315638940402</v>
+        <v>0.08469814982116833</v>
       </c>
     </row>
     <row r="54">
@@ -859,7 +859,7 @@
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>0.01073929268634586</v>
+        <v>0.000722187731332195</v>
       </c>
     </row>
     <row r="55">
@@ -867,7 +867,7 @@
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>0.004515643100235988</v>
+        <v>6.001799999675806e-05</v>
       </c>
     </row>
     <row r="56">
@@ -875,7 +875,7 @@
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>0.008067113940891577</v>
+        <v>0.008223381228008539</v>
       </c>
     </row>
     <row r="57">
@@ -883,7 +883,7 @@
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>0.1141469432523178</v>
+        <v>0.2357121636372261</v>
       </c>
     </row>
     <row r="58">
@@ -891,7 +891,7 @@
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>0.01053360655485765</v>
+        <v>0.0008815799226740397</v>
       </c>
     </row>
     <row r="59">
@@ -899,7 +899,7 @@
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>0.001732928356986426</v>
+        <v>0.04647876316155243</v>
       </c>
     </row>
     <row r="60">
@@ -907,7 +907,7 @@
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>0.1177357042054965</v>
+        <v>0.01128995037652539</v>
       </c>
     </row>
     <row r="61">
@@ -915,7 +915,7 @@
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>0.004760032360138994</v>
+        <v>0.02013889443354708</v>
       </c>
     </row>
     <row r="62">
@@ -923,7 +923,7 @@
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>0.009842845769377731</v>
+        <v>0.009184292800712578</v>
       </c>
     </row>
     <row r="63">
@@ -931,7 +931,7 @@
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>0.01591375933378043</v>
+        <v>0.0929631383969305</v>
       </c>
     </row>
     <row r="64">
@@ -939,7 +939,7 @@
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>0.005892130457595604</v>
+        <v>0.05414046348336963</v>
       </c>
     </row>
     <row r="65">
@@ -947,7 +947,7 @@
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>0.02209294718297763</v>
+        <v>0.0166362781360446</v>
       </c>
     </row>
     <row r="66">
@@ -955,7 +955,7 @@
         <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>0.001317268830461191</v>
+        <v>0.01001117388534662</v>
       </c>
     </row>
     <row r="67">
@@ -963,7 +963,7 @@
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>0.006501963812858148</v>
+        <v>0.02926266807948559</v>
       </c>
     </row>
     <row r="68">
@@ -971,7 +971,7 @@
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>0.03094942493646213</v>
+        <v>0.04294935971395226</v>
       </c>
     </row>
     <row r="69">
@@ -979,7 +979,7 @@
         <v>67</v>
       </c>
       <c r="B69" t="n">
-        <v>0.01566497516402516</v>
+        <v>0.07499283815219362</v>
       </c>
     </row>
     <row r="70">
@@ -987,7 +987,7 @@
         <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>0.009955328261515394</v>
+        <v>0.06231396977721898</v>
       </c>
     </row>
     <row r="71">
@@ -995,7 +995,7 @@
         <v>69</v>
       </c>
       <c r="B71" t="n">
-        <v>0.03348629097880403</v>
+        <v>0.01949884180242927</v>
       </c>
     </row>
     <row r="72">
@@ -1003,7 +1003,7 @@
         <v>70</v>
       </c>
       <c r="B72" t="n">
-        <v>0.0689274977225601</v>
+        <v>0.006051967249820324</v>
       </c>
     </row>
     <row r="73">
@@ -1011,7 +1011,7 @@
         <v>71</v>
       </c>
       <c r="B73" t="n">
-        <v>0.002114532530803517</v>
+        <v>4.000399999991998e-05</v>
       </c>
     </row>
     <row r="74">
@@ -1019,7 +1019,7 @@
         <v>72</v>
       </c>
       <c r="B74" t="n">
-        <v>0.006441011421500093</v>
+        <v>0.01813178366044925</v>
       </c>
     </row>
     <row r="75">
@@ -1027,7 +1027,7 @@
         <v>73</v>
       </c>
       <c r="B75" t="n">
-        <v>0.01047467871150273</v>
+        <v>0.01975597491361441</v>
       </c>
     </row>
     <row r="76">
@@ -1035,7 +1035,7 @@
         <v>74</v>
       </c>
       <c r="B76" t="n">
-        <v>0.01450477274015216</v>
+        <v>0.05289984089015527</v>
       </c>
     </row>
     <row r="77">
@@ -1043,7 +1043,7 @@
         <v>75</v>
       </c>
       <c r="B77" t="n">
-        <v>0.0387824914346348</v>
+        <v>0.0598456323783902</v>
       </c>
     </row>
     <row r="78">
@@ -1051,7 +1051,7 @@
         <v>76</v>
       </c>
       <c r="B78" t="n">
-        <v>0.005125107426317227</v>
+        <v>0.001184905277321355</v>
       </c>
     </row>
     <row r="79">
@@ -1059,7 +1059,7 @@
         <v>77</v>
       </c>
       <c r="B79" t="n">
-        <v>0.05615283389479281</v>
+        <v>0.01175470651759343</v>
       </c>
     </row>
     <row r="80">
@@ -1067,7 +1067,7 @@
         <v>78</v>
       </c>
       <c r="B80" t="n">
-        <v>0.04292996567139465</v>
+        <v>0.009415938006991033</v>
       </c>
     </row>
     <row r="81">
@@ -1075,7 +1075,7 @@
         <v>79</v>
       </c>
       <c r="B81" t="n">
-        <v>0.01254783296688894</v>
+        <v>0.00742707251090916</v>
       </c>
     </row>
     <row r="82">
@@ -1083,7 +1083,7 @@
         <v>80</v>
       </c>
       <c r="B82" t="n">
-        <v>0.0001918876623862857</v>
+        <v>0.0009415019660608976</v>
       </c>
     </row>
     <row r="83">
@@ -1091,7 +1091,7 @@
         <v>81</v>
       </c>
       <c r="B83" t="n">
-        <v>0.003494004727121859</v>
+        <v>0.004158431881567956</v>
       </c>
     </row>
     <row r="84">
@@ -1099,7 +1099,7 @@
         <v>82</v>
       </c>
       <c r="B84" t="n">
-        <v>0.02082341490089915</v>
+        <v>4.000399999991998e-05</v>
       </c>
     </row>
     <row r="85">
@@ -1107,7 +1107,7 @@
         <v>83</v>
       </c>
       <c r="B85" t="n">
-        <v>0.04276162123865281</v>
+        <v>0.1056948615837847</v>
       </c>
     </row>
     <row r="86">
@@ -1115,7 +1115,7 @@
         <v>84</v>
       </c>
       <c r="B86" t="n">
-        <v>0.001520797115949321</v>
+        <v>0.03084109208918806</v>
       </c>
     </row>
     <row r="87">
@@ -1123,7 +1123,7 @@
         <v>85</v>
       </c>
       <c r="B87" t="n">
-        <v>0.009253959874452659</v>
+        <v>0.000921723975194242</v>
       </c>
     </row>
     <row r="88">
@@ -1131,7 +1131,7 @@
         <v>86</v>
       </c>
       <c r="B88" t="n">
-        <v>0.01786063985601123</v>
+        <v>0.01281369633579022</v>
       </c>
     </row>
     <row r="89">
@@ -1139,7 +1139,7 @@
         <v>87</v>
       </c>
       <c r="B89" t="n">
-        <v>0.01105447558999044</v>
+        <v>0.004070053537807864</v>
       </c>
     </row>
     <row r="90">
@@ -1147,7 +1147,7 @@
         <v>88</v>
       </c>
       <c r="B90" t="n">
-        <v>0.01095563194904764</v>
+        <v>0.004629104316059828</v>
       </c>
     </row>
     <row r="91">
@@ -1155,7 +1155,7 @@
         <v>89</v>
       </c>
       <c r="B91" t="n">
-        <v>0.01838870536263403</v>
+        <v>0.002393247172370924</v>
       </c>
     </row>
     <row r="92">
@@ -1163,7 +1163,7 @@
         <v>90</v>
       </c>
       <c r="B92" t="n">
-        <v>0.002379965629840626</v>
+        <v>0.02073678478505062</v>
       </c>
     </row>
     <row r="93">
@@ -1171,7 +1171,7 @@
         <v>91</v>
       </c>
       <c r="B93" t="n">
-        <v>0.004221482054433242</v>
+        <v>0.1014599140834773</v>
       </c>
     </row>
     <row r="94">
@@ -1179,7 +1179,7 @@
         <v>92</v>
       </c>
       <c r="B94" t="n">
-        <v>0.06304688579195061</v>
+        <v>0.002315311165552429</v>
       </c>
     </row>
     <row r="95">
@@ -1187,7 +1187,7 @@
         <v>93</v>
       </c>
       <c r="B95" t="n">
-        <v>0.03503711438091758</v>
+        <v>0.2166143517791005</v>
       </c>
     </row>
     <row r="96">
@@ -1195,7 +1195,7 @@
         <v>94</v>
       </c>
       <c r="B96" t="n">
-        <v>0.0394257969390744</v>
+        <v>0.001021773818071622</v>
       </c>
     </row>
     <row r="97">
@@ -1203,7 +1203,7 @@
         <v>95</v>
       </c>
       <c r="B97" t="n">
-        <v>0.01854572741190743</v>
+        <v>0.02253313096299017</v>
       </c>
     </row>
     <row r="98">
@@ -1211,7 +1211,7 @@
         <v>96</v>
       </c>
       <c r="B98" t="n">
-        <v>0.007794014623450596</v>
+        <v>0.03817727827904176</v>
       </c>
     </row>
     <row r="99">
@@ -1219,7 +1219,7 @@
         <v>97</v>
       </c>
       <c r="B99" t="n">
-        <v>0.04451727120183482</v>
+        <v>0.09695906007555476</v>
       </c>
     </row>
     <row r="100">
@@ -1227,7 +1227,7 @@
         <v>98</v>
       </c>
       <c r="B100" t="n">
-        <v>0.00210188181336362</v>
+        <v>0.01508462374053946</v>
       </c>
     </row>
     <row r="101">
@@ -1235,7 +1235,7 @@
         <v>99</v>
       </c>
       <c r="B101" t="n">
-        <v>0.06572345536517414</v>
+        <v>0.2470531494923342</v>
       </c>
     </row>
   </sheetData>
